--- a/Murphy-Machine-Learning-print-typos.xlsx
+++ b/Murphy-Machine-Learning-print-typos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Guozi/ML/Books@ML/ML-Errara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Guozi/Github/Machine_Learning/Murphy-Machine-Learning-A-Probabilistic-Perspective-Errata-and-Notes-4th-printings/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="211">
   <si>
     <t>Page</t>
   </si>
@@ -648,6 +648,15 @@
   </si>
   <si>
     <t>so it need</t>
+  </si>
+  <si>
+    <t>24.3.3</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>spreads</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2036,21 +2045,41 @@
         <v>104</v>
       </c>
       <c r="B77" s="1">
+        <v>852</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
         <v>871</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C78" s="1">
         <v>24.6</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E78" s="1">
         <v>3</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Murphy-Machine-Learning-print-typos.xlsx
+++ b/Murphy-Machine-Learning-print-typos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="214">
   <si>
     <t>Page</t>
   </si>
@@ -657,6 +657,15 @@
   </si>
   <si>
     <t>spreads</t>
+  </si>
+  <si>
+    <t>last but one</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,162 +2203,162 @@
         <v>132</v>
       </c>
       <c r="B90" s="1">
-        <v>955</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D90" s="1">
-        <v>3</v>
+        <v>949</v>
+      </c>
+      <c r="C90" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2363,35 +2372,55 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <v>996</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
         <v>5</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B101" s="1">
         <v>1007</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>175</v>
       </c>
     </row>

--- a/Murphy-Machine-Learning-print-typos.xlsx
+++ b/Murphy-Machine-Learning-print-typos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="218">
   <si>
     <t>Page</t>
   </si>
@@ -666,6 +666,18 @@
   </si>
   <si>
     <t>out</t>
+  </si>
+  <si>
+    <t>Chap 14</t>
+  </si>
+  <si>
+    <t>above 14.5</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,709 +1676,692 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="1">
+        <v>498</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B45" s="1">
         <v>523</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D45" s="1">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="1">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
         <v>538</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B48" s="1">
         <v>545</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C48" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E48" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
-        <v>546</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
-        <v>560</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
+        <v>546</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>560</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
         <v>562</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B53" s="1">
         <v>601</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D53" s="1">
         <v>4</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
         <v>604</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B57" s="1">
         <v>637</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D57" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
         <v>648</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
         <v>4</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B61" s="1">
         <v>675</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B64" s="1">
         <v>719</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D64" s="1">
         <v>3</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E64" s="1">
         <v>3</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B68" s="1">
         <v>734</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C68" s="1">
         <v>21.2</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="1">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
         <v>737</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
-      <c r="E67" s="1">
-        <v>2</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B71" s="1">
         <v>774</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="1">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
         <v>803</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1">
-        <v>2</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B74" s="1">
         <v>833</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C74" s="1">
         <v>23.6</v>
       </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
         <v>4</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="1">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
         <v>833</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C75" s="1">
         <v>23.6</v>
       </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
         <v>3</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B79" s="1">
         <v>852</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="1">
-        <v>2</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="1">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
         <v>871</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C80" s="1">
         <v>24.6</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E80" s="1">
         <v>3</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B83" s="1">
         <v>901</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1">
-        <v>2</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B87" s="1">
         <v>919</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="1">
-        <v>927</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1">
-        <v>3</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="1">
-        <v>938</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="1">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1">
-        <v>10</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
+        <v>927</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <v>938</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
         <v>944</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
         <v>4</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B92" s="1">
         <v>949</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C92" s="1">
         <v>27.1</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="1">
-        <v>955</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="1">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1">
-        <v>3</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="1">
-        <v>957</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E95" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E97" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -2375,52 +2370,92 @@
         <v>2</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
+        <v>987</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>6</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="1">
         <v>996</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1">
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="1">
+        <v>996</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
         <v>5</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B103" s="1">
         <v>1007</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>175</v>
       </c>
     </row>

--- a/Murphy-Machine-Learning-print-typos.xlsx
+++ b/Murphy-Machine-Learning-print-typos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="223">
   <si>
     <t>Page</t>
   </si>
@@ -678,6 +678,21 @@
   </si>
   <si>
     <t>method</t>
+  </si>
+  <si>
+    <t>12.3.1</t>
+  </si>
+  <si>
+    <t>where where</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>the the</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,817 +1606,817 @@
         <v>79</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>400</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>405</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="1">
         <v>442</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
-        <v>443</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
-        <v>444</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="1">
-        <v>2</v>
+      <c r="E40" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
+        <v>443</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
         <v>444</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>444</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="1">
-        <v>498</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="1">
+        <v>498</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B47" s="1">
         <v>523</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D47" s="1">
         <v>4</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
         <v>538</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="1">
         <v>545</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C50" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D50" s="1">
         <v>3</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E50" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="1">
-        <v>546</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
-        <v>560</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
+        <v>546</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>560</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
         <v>562</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B55" s="1">
         <v>601</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
         <v>604</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B59" s="1">
         <v>637</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
         <v>648</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
         <v>4</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B63" s="1">
         <v>675</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B66" s="1">
         <v>719</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D66" s="1">
         <v>3</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B70" s="1">
         <v>734</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C70" s="1">
         <v>21.2</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="1">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
         <v>737</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D71" s="1">
         <v>3</v>
       </c>
-      <c r="E69" s="1">
-        <v>2</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B73" s="1">
         <v>774</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="1">
-        <v>2</v>
-      </c>
-      <c r="E71" s="1">
-        <v>2</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
         <v>803</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="1">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>2</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B76" s="1">
         <v>833</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C76" s="1">
         <v>23.6</v>
       </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
         <v>4</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="1">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
         <v>833</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C77" s="1">
         <v>23.6</v>
       </c>
-      <c r="D75" s="1">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
         <v>3</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B81" s="1">
         <v>852</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D79" s="1">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="1">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
         <v>871</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C82" s="1">
         <v>24.6</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E82" s="1">
         <v>3</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B85" s="1">
         <v>901</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1">
-        <v>2</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B89" s="1">
         <v>919</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
-        <v>2</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="1">
-        <v>927</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1">
-        <v>3</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="1">
-        <v>938</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="1">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1">
-        <v>10</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
+        <v>927</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>938</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
         <v>944</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
         <v>4</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B94" s="1">
         <v>949</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C94" s="1">
         <v>27.1</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="1">
-        <v>955</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" s="1">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1">
-        <v>3</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="1">
-        <v>957</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="1">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E98" s="1">
         <v>2</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E99" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -2410,52 +2425,92 @@
         <v>2</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
+        <v>987</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>6</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="1">
         <v>996</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="1">
+        <v>996</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
         <v>5</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B105" s="1">
         <v>1007</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D103" s="1">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>175</v>
       </c>
     </row>

--- a/Murphy-Machine-Learning-print-typos.xlsx
+++ b/Murphy-Machine-Learning-print-typos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="227">
   <si>
     <t>Page</t>
   </si>
@@ -693,13 +693,25 @@
   </si>
   <si>
     <t>the the</t>
+  </si>
+  <si>
+    <t>14.5.2.2</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>20.2.2.</t>
+  </si>
+  <si>
+    <t>updates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,6 +738,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1040,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,374 +1770,394 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>503</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <v>523</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>4</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
         <v>538</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="1">
         <v>545</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
-        <v>546</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
       </c>
       <c r="E51" s="1">
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
+        <v>560</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
         <v>562</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="1">
         <v>601</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D56" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
         <v>604</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
         <v>3</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="1">
         <v>637</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D60" s="1">
         <v>4</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
         <v>648</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="1">
         <v>675</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="1">
+        <v>712</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
         <v>719</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D68" s="1">
         <v>3</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E68" s="1">
         <v>3</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B71" s="1">
         <v>734</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>21.2</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
         <v>737</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
-      <c r="E71" s="1">
-        <v>2</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="1">
         <v>774</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1">
-        <v>2</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="1">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
         <v>803</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="1">
-        <v>2</v>
-      </c>
-      <c r="E74" s="1">
-        <v>2</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="1">
-        <v>833</v>
-      </c>
-      <c r="C76" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>4</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>833</v>
       </c>
@@ -2127,348 +2165,348 @@
         <v>23.6</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <v>833</v>
+      </c>
+      <c r="C78" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
         <v>3</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="1">
         <v>852</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D81" s="1">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="1">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
         <v>871</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C83" s="1">
         <v>24.6</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E83" s="1">
         <v>3</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>901</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B90" s="1">
         <v>919</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1">
-        <v>2</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="1">
-        <v>927</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
-        <v>3</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
         <v>3</v>
       </c>
-      <c r="E91" s="1">
-        <v>10</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
+        <v>938</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
         <v>944</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
         <v>4</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="1">
         <v>949</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C95" s="1">
         <v>27.1</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="1">
-        <v>955</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" s="1">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1">
-        <v>3</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E99" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" s="1">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2482,39 +2520,61 @@
         <v>1</v>
       </c>
       <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <v>996</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
         <v>5</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B106" s="1">
         <v>1007</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D105" s="1">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>